--- a/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
+++ b/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
+++ b/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
+++ b/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
+++ b/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1083,7 +1148,113 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1099,13 +1270,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
+++ b/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.71</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +1281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1254,14 +1319,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1270,14 +1357,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1286,13 +1395,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
+++ b/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.97</v>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.71</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1593,14 +1680,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1609,14 +1718,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1625,13 +1756,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
+++ b/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.71</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,7 +569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银全球股票（QDII）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银全球股票（QDII）港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -737,31 +754,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -775,31 +792,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银全球精选股票(QDII)</t>
+          <t>工银全球精选股票（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.69</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1243</t>
+          <t>0.1161</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -818,22 +835,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>80.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -856,22 +873,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>80.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -894,22 +911,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>80.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -988,26 +1005,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2148</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1016,36 +1033,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2148</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1054,36 +1071,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2148</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1102,26 +1119,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>89.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1929</t>
+          <t>0.1243</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1140,22 +1157,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1178,22 +1195,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1216,22 +1233,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1244,6 +1261,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +1752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1613,100 +1952,6 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>539001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信全球机遇混合QDII</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1787,21 +2032,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.46</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1810,6 +2055,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
+++ b/数据整理/stocks/其他/US0378331005-苹果公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.97</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.71</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +586,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +860,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>012751</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银全球股票（QDII）美元</t>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.1149</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +898,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>012752</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银全球股票（QDII）港币</t>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.1149</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -749,188 +936,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>012753</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.1149</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>486002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银全球精选股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1161</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012751</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0820</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012752</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信纳斯达克100指数（QDII）C 人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0820</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012753</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>12.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0820</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1000,31 +1035,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银全球股票（QDII）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1038,31 +1073,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银全球股票（QDII）港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1076,31 +1111,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1114,31 +1149,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银全球精选股票(QDII)</t>
+          <t>工银全球精选股票（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.69</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1243</t>
+          <t>0.1161</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1157,22 +1192,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>80.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1195,22 +1230,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>80.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1233,22 +1268,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>80.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0548</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1327,26 +1362,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2148</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1355,36 +1390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2148</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1393,36 +1428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2148</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1441,26 +1476,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>89.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1929</t>
+          <t>0.1243</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1479,22 +1514,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1517,22 +1552,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1555,22 +1590,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0455</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1583,6 +1618,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1752,7 +2109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1952,100 +2309,6 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>539001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信全球机遇混合QDII</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2126,21 +2389,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.46</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2154,166 +2417,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>539001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>建信全球机遇混合QDII</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>85.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2669</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>486002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2319</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>539001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信全球机遇混合QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>